--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY143"/>
+  <dimension ref="A1:AY148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17038,6 +17038,591 @@
       </c>
       <c r="AY143" t="inlineStr"/>
     </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>111823815</v>
+      </c>
+      <c r="B144" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Remsleberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>614782.4078379853</v>
+      </c>
+      <c r="R144" t="n">
+        <v>7007908.541764216</v>
+      </c>
+      <c r="S144" t="n">
+        <v>50</v>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT144" t="inlineStr"/>
+      <c r="AW144" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AX144" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>111823812</v>
+      </c>
+      <c r="B145" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Remsleberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>614673.1716471891</v>
+      </c>
+      <c r="R145" t="n">
+        <v>7008079.098404014</v>
+      </c>
+      <c r="S145" t="n">
+        <v>50</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA145" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT145" t="inlineStr"/>
+      <c r="AW145" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AX145" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>111823813</v>
+      </c>
+      <c r="B146" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Remsleberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>614781.6935995388</v>
+      </c>
+      <c r="R146" t="n">
+        <v>7007890.43941292</v>
+      </c>
+      <c r="S146" t="n">
+        <v>50</v>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA146" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT146" t="inlineStr"/>
+      <c r="AW146" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AX146" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>111823814</v>
+      </c>
+      <c r="B147" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Remsleberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>614686.5122837974</v>
+      </c>
+      <c r="R147" t="n">
+        <v>7008047.48724987</v>
+      </c>
+      <c r="S147" t="n">
+        <v>50</v>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT147" t="inlineStr"/>
+      <c r="AW147" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AX147" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>111823816</v>
+      </c>
+      <c r="B148" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>Remsleberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>614700.7016093555</v>
+      </c>
+      <c r="R148" t="n">
+        <v>7008119.391029589</v>
+      </c>
+      <c r="S148" t="n">
+        <v>50</v>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT148" t="inlineStr"/>
+      <c r="AW148" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AX148" t="inlineStr">
+        <is>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY148" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823812</v>
+        <v>111823814</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614673.1716471891</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R145" t="n">
-        <v>7008079.098404014</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111823813</v>
+        <v>111823816</v>
       </c>
       <c r="B146" t="n">
         <v>56398</v>
@@ -17310,7 +17310,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614781.6935995388</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R146" t="n">
-        <v>7007890.43941292</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823814</v>
+        <v>111823812</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614686.5122837974</v>
+        <v>614673.1716471891</v>
       </c>
       <c r="R147" t="n">
-        <v>7008047.48724987</v>
+        <v>7008079.098404014</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823816</v>
+        <v>111823813</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17544,7 +17544,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614700.7016093555</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R148" t="n">
-        <v>7008119.391029589</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823815</v>
+        <v>111823816</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17076,7 +17076,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614782.4078379853</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R144" t="n">
-        <v>7007908.541764216</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823814</v>
+        <v>111823813</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614686.5122837974</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R145" t="n">
-        <v>7008047.48724987</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111823816</v>
+        <v>111823815</v>
       </c>
       <c r="B146" t="n">
         <v>56398</v>
@@ -17310,7 +17310,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614700.7016093555</v>
+        <v>614782.4078379853</v>
       </c>
       <c r="R146" t="n">
-        <v>7008119.391029589</v>
+        <v>7007908.541764216</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823813</v>
+        <v>111823814</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614781.6935995388</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R148" t="n">
-        <v>7007890.43941292</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823816</v>
+        <v>111823812</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17076,7 +17076,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614700.7016093555</v>
+        <v>614673.1716471891</v>
       </c>
       <c r="R144" t="n">
-        <v>7008119.391029589</v>
+        <v>7008079.098404014</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823813</v>
+        <v>111823816</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17193,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614781.6935995388</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R145" t="n">
-        <v>7007890.43941292</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823812</v>
+        <v>111823813</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614673.1716471891</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R147" t="n">
-        <v>7008079.098404014</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823816</v>
+        <v>111823814</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17193,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614700.7016093555</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R145" t="n">
-        <v>7008119.391029589</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823814</v>
+        <v>111823816</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17544,7 +17544,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614686.5122837974</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R148" t="n">
-        <v>7008047.48724987</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823814</v>
+        <v>111823816</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17193,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614686.5122837974</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R145" t="n">
-        <v>7008047.48724987</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823813</v>
+        <v>111823814</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614781.6935995388</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R147" t="n">
-        <v>7007890.43941292</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823816</v>
+        <v>111823813</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17544,7 +17544,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614700.7016093555</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R148" t="n">
-        <v>7008119.391029589</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823812</v>
+        <v>111823813</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614673.1716471891</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R144" t="n">
-        <v>7008079.098404014</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823816</v>
+        <v>111823812</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17193,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614700.7016093555</v>
+        <v>614673.1716471891</v>
       </c>
       <c r="R145" t="n">
-        <v>7008119.391029589</v>
+        <v>7008079.098404014</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111823815</v>
+        <v>111823814</v>
       </c>
       <c r="B146" t="n">
         <v>56398</v>
@@ -17310,7 +17310,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614782.4078379853</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R146" t="n">
-        <v>7007908.541764216</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823814</v>
+        <v>111823816</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17427,7 +17427,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614686.5122837974</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R147" t="n">
-        <v>7008047.48724987</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823813</v>
+        <v>111823815</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17544,7 +17544,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614781.6935995388</v>
+        <v>614782.4078379853</v>
       </c>
       <c r="R148" t="n">
-        <v>7007890.43941292</v>
+        <v>7007908.541764216</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823813</v>
+        <v>111823816</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17076,7 +17076,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614781.6935995388</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R144" t="n">
-        <v>7007890.43941292</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823812</v>
+        <v>111823813</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614673.1716471891</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R145" t="n">
-        <v>7008079.098404014</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823816</v>
+        <v>111823812</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17427,7 +17427,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614700.7016093555</v>
+        <v>614673.1716471891</v>
       </c>
       <c r="R147" t="n">
-        <v>7008119.391029589</v>
+        <v>7008079.098404014</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823816</v>
+        <v>111823815</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17076,7 +17076,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614700.7016093555</v>
+        <v>614782.4078379853</v>
       </c>
       <c r="R144" t="n">
-        <v>7008119.391029589</v>
+        <v>7007908.541764216</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823813</v>
+        <v>111823816</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17193,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17202,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614781.6935995388</v>
+        <v>614700.7016093555</v>
       </c>
       <c r="R145" t="n">
-        <v>7007890.43941292</v>
+        <v>7008119.391029589</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111823814</v>
+        <v>111823812</v>
       </c>
       <c r="B146" t="n">
         <v>56398</v>
@@ -17319,10 +17319,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614686.5122837974</v>
+        <v>614673.1716471891</v>
       </c>
       <c r="R146" t="n">
-        <v>7008047.48724987</v>
+        <v>7008079.098404014</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823812</v>
+        <v>111823813</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17436,10 +17436,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614673.1716471891</v>
+        <v>614781.6935995388</v>
       </c>
       <c r="R147" t="n">
-        <v>7008079.098404014</v>
+        <v>7007890.43941292</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17508,7 +17508,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823815</v>
+        <v>111823814</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17544,7 +17544,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -17553,10 +17553,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614782.4078379853</v>
+        <v>614686.5122837974</v>
       </c>
       <c r="R148" t="n">
-        <v>7007908.541764216</v>
+        <v>7008047.48724987</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614782.4078379853</v>
+        <v>614782</v>
       </c>
       <c r="R144" t="n">
-        <v>7007908.541764216</v>
+        <v>7007909</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17118,19 +17118,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA144" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB144" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD144" t="b">
@@ -17157,7 +17147,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823816</v>
+        <v>111823814</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17193,7 +17183,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17202,10 +17192,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614700.7016093555</v>
+        <v>614687</v>
       </c>
       <c r="R145" t="n">
-        <v>7008119.391029589</v>
+        <v>7008047</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17235,19 +17225,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA145" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB145" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD145" t="b">
@@ -17319,10 +17299,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614673.1716471891</v>
+        <v>614673</v>
       </c>
       <c r="R146" t="n">
-        <v>7008079.098404014</v>
+        <v>7008079</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17352,19 +17332,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA146" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB146" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD146" t="b">
@@ -17391,7 +17361,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823813</v>
+        <v>111823816</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17427,7 +17397,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -17436,10 +17406,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614781.6935995388</v>
+        <v>614701</v>
       </c>
       <c r="R147" t="n">
-        <v>7007890.43941292</v>
+        <v>7008119</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17469,19 +17439,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA147" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB147" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD147" t="b">
@@ -17508,7 +17468,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823814</v>
+        <v>111823813</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17553,10 +17513,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614686.5122837974</v>
+        <v>614782</v>
       </c>
       <c r="R148" t="n">
-        <v>7008047.48724987</v>
+        <v>7007890</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>
@@ -17586,19 +17546,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA148" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD148" t="b">

--- a/artfynd/A 43074-2021.xlsx
+++ b/artfynd/A 43074-2021.xlsx
@@ -17040,7 +17040,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111823815</v>
+        <v>111823814</v>
       </c>
       <c r="B144" t="n">
         <v>56398</v>
@@ -17076,7 +17076,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -17085,10 +17085,10 @@
         </is>
       </c>
       <c r="Q144" t="n">
-        <v>614782</v>
+        <v>614687</v>
       </c>
       <c r="R144" t="n">
-        <v>7007909</v>
+        <v>7008047</v>
       </c>
       <c r="S144" t="n">
         <v>50</v>
@@ -17147,7 +17147,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>111823814</v>
+        <v>111823816</v>
       </c>
       <c r="B145" t="n">
         <v>56398</v>
@@ -17183,7 +17183,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -17192,10 +17192,10 @@
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>614687</v>
+        <v>614701</v>
       </c>
       <c r="R145" t="n">
-        <v>7008047</v>
+        <v>7008119</v>
       </c>
       <c r="S145" t="n">
         <v>50</v>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>111823812</v>
+        <v>111823815</v>
       </c>
       <c r="B146" t="n">
         <v>56398</v>
@@ -17290,7 +17290,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>614673</v>
+        <v>614782</v>
       </c>
       <c r="R146" t="n">
-        <v>7008079</v>
+        <v>7007909</v>
       </c>
       <c r="S146" t="n">
         <v>50</v>
@@ -17361,7 +17361,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111823816</v>
+        <v>111823813</v>
       </c>
       <c r="B147" t="n">
         <v>56398</v>
@@ -17397,7 +17397,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -17406,10 +17406,10 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>614701</v>
+        <v>614782</v>
       </c>
       <c r="R147" t="n">
-        <v>7008119</v>
+        <v>7007890</v>
       </c>
       <c r="S147" t="n">
         <v>50</v>
@@ -17468,7 +17468,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>111823813</v>
+        <v>111823812</v>
       </c>
       <c r="B148" t="n">
         <v>56398</v>
@@ -17513,10 +17513,10 @@
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>614782</v>
+        <v>614673</v>
       </c>
       <c r="R148" t="n">
-        <v>7007890</v>
+        <v>7008079</v>
       </c>
       <c r="S148" t="n">
         <v>50</v>
